--- a/testingData/swd.xlsx
+++ b/testingData/swd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrus/Google Drive/sem5/DDM4252_GraduationProjectForCreativeMedia/smartForm-website/smartForm-website/testingData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D60B8E9-D040-6342-BC04-E5E03E4DE581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE5C9C9-2ACC-304A-942F-BE17199A7420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{713D6308-562F-A040-9154-63924A6053DC}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
